--- a/SourceCode/2023/Oct2023/Sandesh/Test case REFramework/RoboticEnterpriseFramework_ExcelTestCase_Sandesh/Data/Config.xlsx
+++ b/SourceCode/2023/Oct2023/Sandesh/Test case REFramework/RoboticEnterpriseFramework_ExcelTestCase_Sandesh/Data/Config.xlsx
@@ -545,7 +545,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
